--- a/src/test/java/apachePOI/resource/_ZeroBankData.xlsx
+++ b/src/test/java/apachePOI/resource/_ZeroBankData.xlsx
@@ -4,12 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9600" windowHeight="14010"/>
+    <workbookView windowWidth="9600" windowHeight="13980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -31,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -971,8 +986,8 @@
   <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1001,4 +1016,36 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>